--- a/fechamento_2021/fechamento_agosto/GeralAgosto4.xlsx
+++ b/fechamento_2021/fechamento_agosto/GeralAgosto4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04828FBC-734E-45B3-9670-F851EE9F55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDBE84A-FA75-40BA-A0CA-BB644E1B275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{901E70A2-BE66-418C-811E-D7EE24F380E2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="245">
   <si>
     <t>Coletado</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Dor de Garganta, Tosse</t>
   </si>
   <si>
-    <t>ANTICORPOS TOTAIS</t>
-  </si>
-  <si>
     <t>Assintomatico</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Febre, Dor de Cabeca</t>
   </si>
   <si>
-    <t>Coriza, Tosse</t>
-  </si>
-  <si>
     <t>Dor de Garganta</t>
   </si>
   <si>
@@ -177,109 +171,7 @@
     <t>TESTE SOROLÓGICO IgM</t>
   </si>
   <si>
-    <t>ISAQUE GABRIEL PEREIRA ALVES</t>
-  </si>
-  <si>
-    <t>ISAQUE NETO TELES</t>
-  </si>
-  <si>
-    <t>Febre, Coriza</t>
-  </si>
-  <si>
-    <t>ISIS HELENA SILVA TRAMONTINI</t>
-  </si>
-  <si>
-    <t>ISMAYSE FERREIRA DO NASCIMENTO</t>
-  </si>
-  <si>
-    <t>Febre, Dispneia, Tosse, Dor de Cabeca</t>
-  </si>
-  <si>
-    <t>ISRAEL ALEXANDRE TUMANI MIRANDA MOURA</t>
-  </si>
-  <si>
-    <t>ISRAEL APARECIDO POLI</t>
-  </si>
-  <si>
-    <t>IURI LIMA SANTOS</t>
-  </si>
-  <si>
-    <t>IURIAN RODRIGUES DA SILVA</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Coriza, Dispneia</t>
-  </si>
-  <si>
-    <t>IVAM GARCIA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>IVAN APARECIDO VIEIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>Febre, Tosse, Coriza, Dispneia, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>IVAN DE SOUZA MARQUES</t>
-  </si>
-  <si>
-    <t>Febre, Tosse, Outros, Coriza</t>
-  </si>
-  <si>
-    <t>IVAN SOUZA DE LIMA</t>
-  </si>
-  <si>
-    <t>IVANETTE DE SOUZA GOMES</t>
-  </si>
-  <si>
-    <t>Outros, Dor de Garganta, Febre</t>
-  </si>
-  <si>
-    <t>IVANI KAROLINE VIEIRA LINS</t>
-  </si>
-  <si>
-    <t>IVANIR APARECIDA LOPES DE MORAES</t>
-  </si>
-  <si>
-    <t>IVO GOES MACIEL JUNIOR</t>
-  </si>
-  <si>
-    <t>IVON CURI</t>
-  </si>
-  <si>
-    <t>IVONETE GONCALVES DE SOUZA</t>
-  </si>
-  <si>
     <t>Tosse, Dor de Cabeca</t>
-  </si>
-  <si>
-    <t>IVONETE SOUZA BARBOSA</t>
-  </si>
-  <si>
-    <t>IYAMARA RIBEIRO ROSSETTI</t>
-  </si>
-  <si>
-    <t>Dispneia, Febre</t>
-  </si>
-  <si>
-    <t>IZABELA VITAL DA SILVA</t>
-  </si>
-  <si>
-    <t>Febre, Dispneia</t>
-  </si>
-  <si>
-    <t>IZABELLA CARDOSO PASSOS</t>
-  </si>
-  <si>
-    <t>JACQUELINE ALMEIDA RIBEIRO</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Febre, Dor de Cabeca, Tosse</t>
-  </si>
-  <si>
-    <t>JACQUELINE BARBOSA DE AGUIAR</t>
-  </si>
-  <si>
-    <t>Dispneia, Febre, Tosse</t>
   </si>
   <si>
     <t>JACQUELINE DE JESUS RIBEIRO</t>
@@ -1240,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA1D988-A178-4633-8969-135581B30D2E}">
-  <dimension ref="A1:BI126"/>
+  <dimension ref="A1:BI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,210 +1183,210 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AM1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AN1" t="s">
         <v>223</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AP1" t="s">
         <v>225</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AQ1" t="s">
         <v>226</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AR1" t="s">
         <v>227</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AT1" t="s">
         <v>229</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AV1" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AW1" t="s">
         <v>232</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AX1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AZ1" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="BB1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="BC1" t="s">
         <v>238</v>
       </c>
-      <c r="T1" t="s">
+      <c r="BD1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="BE1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="BF1" t="s">
         <v>241</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BG1" t="s">
         <v>242</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="BH1" t="s">
         <v>243</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="BI1" t="s">
         <v>244</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>352197497111</v>
+        <v>352198954697</v>
       </c>
       <c r="B2" s="2">
-        <v>44424</v>
+        <v>44436</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
-        <v>42835</v>
+        <v>37110</v>
       </c>
       <c r="E2" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2">
-        <v>44424</v>
+        <v>44436</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
@@ -1513,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="AN2" s="2">
-        <v>44424</v>
+        <v>44436</v>
       </c>
       <c r="AO2" s="4"/>
       <c r="AS2" s="3"/>
@@ -1528,25 +1420,25 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352198280007</v>
+        <v>352198941565</v>
       </c>
       <c r="B3" s="2">
-        <v>44431</v>
+        <v>44436</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
-        <v>37233</v>
+        <v>26027</v>
       </c>
       <c r="E3" s="2">
-        <v>44424</v>
+        <v>44433</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2">
-        <v>44431</v>
+        <v>44436</v>
       </c>
       <c r="L3" t="s">
         <v>0</v>
@@ -1565,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="AN3" s="2">
-        <v>44431</v>
+        <v>44436</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AS3" s="3"/>
@@ -1580,22 +1472,28 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>352196828610</v>
+        <v>352197578220</v>
       </c>
       <c r="B4" s="2">
-        <v>44419</v>
+        <v>44425</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>44145</v>
+        <v>33867</v>
       </c>
       <c r="E4" s="2">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44424</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="O4" s="4"/>
@@ -1604,7 +1502,17 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
       <c r="AG4" s="4"/>
-      <c r="AL4" s="3"/>
+      <c r="AL4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>44424</v>
+      </c>
+      <c r="AO4" s="4"/>
+      <c r="AS4" s="3"/>
       <c r="AU4" s="4"/>
       <c r="AY4" s="3"/>
       <c r="BH4" t="s">
@@ -1616,25 +1524,25 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352197001014</v>
+        <v>352197662737</v>
       </c>
       <c r="B5" s="2">
-        <v>44419</v>
+        <v>44425</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
-        <v>33428</v>
+        <v>26617</v>
       </c>
       <c r="E5" s="2">
-        <v>44412</v>
+        <v>44423</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2">
-        <v>44419</v>
+        <v>44425</v>
       </c>
       <c r="L5" t="s">
         <v>0</v>
@@ -1653,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="AN5" s="2">
-        <v>44419</v>
+        <v>44425</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AS5" s="3"/>
@@ -1668,25 +1576,25 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>352196801545</v>
+        <v>352195864042</v>
       </c>
       <c r="B6" s="2">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2">
-        <v>43157</v>
+        <v>23480</v>
       </c>
       <c r="E6" s="2">
-        <v>44415</v>
+        <v>44408</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="L6" t="s">
         <v>0</v>
@@ -1705,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="AN6" s="2">
-        <v>44418</v>
+        <v>44410</v>
       </c>
       <c r="AO6" s="4"/>
       <c r="AS6" s="3"/>
@@ -1720,47 +1628,31 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352195792590</v>
+        <v>352197677812</v>
       </c>
       <c r="B7" s="2">
-        <v>44410</v>
+        <v>44426</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
-        <v>25465</v>
+        <v>22821</v>
       </c>
       <c r="E7" s="2">
-        <v>44396</v>
+        <v>44417</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M7" s="3"/>
       <c r="O7" s="4"/>
       <c r="V7" s="3"/>
-      <c r="Y7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>44410</v>
-      </c>
       <c r="AB7" s="3"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="3"/>
       <c r="AG7" s="4"/>
-      <c r="AL7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>44410</v>
-      </c>
-      <c r="AO7" s="4"/>
-      <c r="AS7" s="3"/>
+      <c r="AL7" s="3"/>
       <c r="AU7" s="4"/>
       <c r="AY7" s="3"/>
       <c r="BH7" t="s">
@@ -1772,25 +1664,25 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>352196618095</v>
+        <v>352198188582</v>
       </c>
       <c r="B8" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2">
-        <v>34570</v>
+        <v>33116</v>
       </c>
       <c r="E8" s="2">
-        <v>44417</v>
+        <v>44426</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -1809,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="AN8" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="AO8" s="4"/>
       <c r="AS8" s="3"/>
@@ -1824,25 +1716,25 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>352198226233</v>
+        <v>352198172674</v>
       </c>
       <c r="B9" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2">
-        <v>34474</v>
+        <v>30883</v>
       </c>
       <c r="E9" s="2">
         <v>44427</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="L9" t="s">
         <v>0</v>
@@ -1861,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="AN9" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="AO9" s="4"/>
       <c r="AS9" s="3"/>
@@ -1876,25 +1768,25 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352197317048</v>
+        <v>352196857679</v>
       </c>
       <c r="B10" s="2">
-        <v>44423</v>
+        <v>44419</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2">
-        <v>23192</v>
+        <v>32406</v>
       </c>
       <c r="E10" s="2">
-        <v>44418</v>
+        <v>44416</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2">
-        <v>44423</v>
+        <v>44419</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
@@ -1913,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="AN10" s="2">
-        <v>44423</v>
+        <v>44419</v>
       </c>
       <c r="AO10" s="4"/>
       <c r="AS10" s="3"/>
@@ -1928,25 +1820,25 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352195918671</v>
+        <v>352198914519</v>
       </c>
       <c r="B11" s="2">
-        <v>44411</v>
+        <v>44435</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
-        <v>22146</v>
+        <v>37608</v>
       </c>
       <c r="E11" s="2">
-        <v>44409</v>
+        <v>44433</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
-        <v>44411</v>
+        <v>44435</v>
       </c>
       <c r="L11" t="s">
         <v>0</v>
@@ -1965,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="AN11" s="2">
-        <v>44411</v>
+        <v>44435</v>
       </c>
       <c r="AO11" s="4"/>
       <c r="AS11" s="3"/>
@@ -1980,25 +1872,25 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>352198947354</v>
+        <v>352195972351</v>
       </c>
       <c r="B12" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2">
-        <v>43460</v>
+        <v>29092</v>
       </c>
       <c r="E12" s="2">
-        <v>44422</v>
+        <v>44409</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J12" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
@@ -2017,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="AN12" s="2">
-        <v>44435</v>
+        <v>44411</v>
       </c>
       <c r="AO12" s="4"/>
       <c r="AS12" s="3"/>
@@ -2032,25 +1924,25 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>352198951289</v>
+        <v>352198414798</v>
       </c>
       <c r="B13" s="2">
-        <v>44436</v>
+        <v>44431</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
-        <v>29553</v>
+        <v>33179</v>
       </c>
       <c r="E13" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2">
-        <v>44436</v>
+        <v>44431</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
@@ -2069,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="AN13" s="2">
-        <v>44436</v>
+        <v>44431</v>
       </c>
       <c r="AO13" s="4"/>
       <c r="AS13" s="3"/>
@@ -2084,25 +1976,25 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>352198477274</v>
+        <v>352198432432</v>
       </c>
       <c r="B14" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2">
-        <v>26179</v>
+        <v>32562</v>
       </c>
       <c r="E14" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="L14" t="s">
         <v>0</v>
@@ -2121,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="AN14" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="AO14" s="4"/>
       <c r="AS14" s="3"/>
@@ -2136,25 +2028,25 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>352198861010</v>
+        <v>352195997701</v>
       </c>
       <c r="B15" s="2">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2">
-        <v>36163</v>
+        <v>31604</v>
       </c>
       <c r="E15" s="2">
-        <v>44433</v>
+        <v>44409</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
@@ -2173,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="AN15" s="2">
-        <v>44435</v>
+        <v>44412</v>
       </c>
       <c r="AO15" s="4"/>
       <c r="AS15" s="3"/>
@@ -2188,25 +2080,25 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>352198343641</v>
+        <v>352197837693</v>
       </c>
       <c r="B16" s="2">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
-        <v>21635</v>
+        <v>24646</v>
       </c>
       <c r="E16" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="L16" t="s">
         <v>0</v>
@@ -2225,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="AN16" s="2">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="AO16" s="4"/>
       <c r="AS16" s="3"/>
@@ -2240,28 +2132,22 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>352185563429</v>
+        <v>352199000251</v>
       </c>
       <c r="B17" s="2">
-        <v>44420</v>
+        <v>44437</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2">
-        <v>32952</v>
+        <v>35140</v>
       </c>
       <c r="E17" s="2">
         <v>44420</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="2">
-        <v>44420</v>
-      </c>
-      <c r="L17" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M17" s="3"/>
       <c r="O17" s="4"/>
@@ -2270,16 +2156,27 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="3"/>
       <c r="AG17" s="4"/>
+      <c r="AH17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>44427</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>20</v>
+      </c>
       <c r="AL17" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AN17" s="2">
-        <v>44420</v>
-      </c>
-      <c r="AO17" s="4"/>
+        <v>44427</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AS17" s="3"/>
       <c r="AU17" s="4"/>
       <c r="AY17" s="3"/>
@@ -2292,31 +2189,28 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>352199267882</v>
+        <v>352196260818</v>
       </c>
       <c r="B18" s="2">
-        <v>44439</v>
+        <v>44413</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2">
-        <v>21345</v>
+        <v>28788</v>
       </c>
       <c r="E18" s="2">
-        <v>44434</v>
+        <v>44409</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
+        <v>44413</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3"/>
       <c r="O18" s="4"/>
@@ -2326,17 +2220,15 @@
       <c r="AE18" s="3"/>
       <c r="AG18" s="4"/>
       <c r="AL18" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="s">
         <v>1</v>
       </c>
       <c r="AN18" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO18" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>44413</v>
+      </c>
+      <c r="AO18" s="4"/>
       <c r="AS18" s="3"/>
       <c r="AU18" s="4"/>
       <c r="AY18" s="3"/>
@@ -2349,25 +2241,25 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>352197990251</v>
+        <v>352197092790</v>
       </c>
       <c r="B19" s="2">
-        <v>44425</v>
+        <v>44420</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2">
-        <v>21978</v>
+        <v>44316</v>
       </c>
       <c r="E19" s="2">
-        <v>44421</v>
+        <v>44418</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2">
-        <v>44425</v>
+        <v>44420</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
@@ -2386,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="AN19" s="2">
-        <v>44425</v>
+        <v>44420</v>
       </c>
       <c r="AO19" s="4"/>
       <c r="AS19" s="3"/>
@@ -2401,25 +2293,25 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>352196048807</v>
+        <v>352197186738</v>
       </c>
       <c r="B20" s="2">
-        <v>44412</v>
+        <v>44421</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2">
-        <v>30691</v>
+        <v>32115</v>
       </c>
       <c r="E20" s="2">
-        <v>44406</v>
+        <v>44418</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2">
-        <v>44412</v>
+        <v>44421</v>
       </c>
       <c r="L20" t="s">
         <v>0</v>
@@ -2438,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AN20" s="2">
-        <v>44412</v>
+        <v>44421</v>
       </c>
       <c r="AO20" s="4"/>
       <c r="AS20" s="3"/>
@@ -2453,25 +2345,25 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>352195734198</v>
+        <v>352198364874</v>
       </c>
       <c r="B21" s="2">
-        <v>44410</v>
+        <v>44432</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2">
-        <v>33995</v>
+        <v>32997</v>
       </c>
       <c r="E21" s="2">
-        <v>44408</v>
+        <v>44425</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="J21" s="2">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="L21" t="s">
         <v>0</v>
@@ -2490,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="AN21" s="2">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AS21" s="3"/>
@@ -2505,48 +2397,72 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>352195972842</v>
+        <v>352195866153</v>
       </c>
       <c r="B22" s="2">
         <v>44411</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2">
-        <v>37919</v>
+        <v>34724</v>
       </c>
       <c r="E22" s="2">
-        <v>44402</v>
+        <v>44411</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="2">
-        <v>44411</v>
-      </c>
-      <c r="L22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
-      <c r="V22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="2">
+        <v>44411</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="2">
+        <v>44411</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="3"/>
       <c r="AG22" s="4"/>
       <c r="AL22" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AN22" s="2">
         <v>44411</v>
       </c>
-      <c r="AO22" s="4"/>
-      <c r="AS22" s="3"/>
-      <c r="AU22" s="4"/>
+      <c r="AO22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>44411</v>
+      </c>
+      <c r="AU22" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AY22" s="3"/>
       <c r="BH22" t="s">
         <v>2</v>
@@ -2557,25 +2473,25 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>352197714723</v>
+        <v>352198786185</v>
       </c>
       <c r="B23" s="2">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2">
-        <v>36456</v>
+        <v>36186</v>
       </c>
       <c r="E23" s="2">
-        <v>44425</v>
+        <v>44430</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" s="2">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="L23" t="s">
         <v>0</v>
@@ -2594,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="AN23" s="2">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AS23" s="3"/>
@@ -2609,25 +2525,25 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>352198835467</v>
+        <v>352198415013</v>
       </c>
       <c r="B24" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2">
-        <v>31364</v>
+        <v>34475</v>
       </c>
       <c r="E24" s="2">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="J24" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="L24" t="s">
         <v>0</v>
@@ -2646,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="AN24" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AS24" s="3"/>
@@ -2661,28 +2577,22 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>352198355370</v>
+        <v>352198924561</v>
       </c>
       <c r="B25" s="2">
+        <v>44435</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2">
+        <v>36275</v>
+      </c>
+      <c r="E25" s="2">
         <v>44431</v>
       </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="2">
-        <v>32841</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44419</v>
-      </c>
       <c r="F25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="2">
-        <v>44431</v>
-      </c>
-      <c r="L25" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
@@ -2691,17 +2601,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="3"/>
       <c r="AG25" s="4"/>
-      <c r="AL25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>44431</v>
-      </c>
-      <c r="AO25" s="4"/>
-      <c r="AS25" s="3"/>
+      <c r="AL25" s="3"/>
       <c r="AU25" s="4"/>
       <c r="AY25" s="3"/>
       <c r="BH25" t="s">
@@ -2713,25 +2613,25 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>352198954697</v>
+        <v>352198736909</v>
       </c>
       <c r="B26" s="2">
-        <v>44436</v>
+        <v>44434</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2">
-        <v>37110</v>
+        <v>36812</v>
       </c>
       <c r="E26" s="2">
         <v>44433</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J26" s="2">
-        <v>44436</v>
+        <v>44434</v>
       </c>
       <c r="L26" t="s">
         <v>0</v>
@@ -2750,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="AN26" s="2">
-        <v>44436</v>
+        <v>44434</v>
       </c>
       <c r="AO26" s="4"/>
       <c r="AS26" s="3"/>
@@ -2765,25 +2665,25 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>352198941565</v>
+        <v>352195772528</v>
       </c>
       <c r="B27" s="2">
-        <v>44436</v>
+        <v>44410</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2">
-        <v>26027</v>
+        <v>33014</v>
       </c>
       <c r="E27" s="2">
-        <v>44433</v>
+        <v>44405</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J27" s="2">
-        <v>44436</v>
+        <v>44410</v>
       </c>
       <c r="L27" t="s">
         <v>0</v>
@@ -2802,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="AN27" s="2">
-        <v>44436</v>
+        <v>44410</v>
       </c>
       <c r="AO27" s="4"/>
       <c r="AS27" s="3"/>
@@ -2817,32 +2717,40 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>352197578220</v>
+        <v>352195882389</v>
       </c>
       <c r="B28" s="2">
-        <v>44425</v>
+        <v>44411</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2">
-        <v>33867</v>
+        <v>27670</v>
       </c>
       <c r="E28" s="2">
-        <v>44420</v>
+        <v>44402</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="2">
-        <v>44424</v>
-      </c>
-      <c r="L28" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="M28" s="3"/>
       <c r="O28" s="4"/>
-      <c r="V28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>44411</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>44411</v>
+      </c>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="3"/>
@@ -2851,13 +2759,21 @@
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AN28" s="2">
-        <v>44424</v>
+        <v>44411</v>
       </c>
       <c r="AO28" s="4"/>
-      <c r="AS28" s="3"/>
+      <c r="AR28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>44411</v>
+      </c>
       <c r="AU28" s="4"/>
       <c r="AY28" s="3"/>
       <c r="BH28" t="s">
@@ -2869,25 +2785,25 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>352197662737</v>
+        <v>352196337205</v>
       </c>
       <c r="B29" s="2">
-        <v>44425</v>
+        <v>44414</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2">
-        <v>26617</v>
+        <v>38789</v>
       </c>
       <c r="E29" s="2">
-        <v>44423</v>
+        <v>44409</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J29" s="2">
-        <v>44425</v>
+        <v>44413</v>
       </c>
       <c r="L29" t="s">
         <v>0</v>
@@ -2906,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="AN29" s="2">
-        <v>44425</v>
+        <v>44413</v>
       </c>
       <c r="AO29" s="4"/>
       <c r="AS29" s="3"/>
@@ -2921,25 +2837,25 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>352195864042</v>
+        <v>352198525753</v>
       </c>
       <c r="B30" s="2">
-        <v>44410</v>
+        <v>44433</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2">
-        <v>23480</v>
+        <v>29117</v>
       </c>
       <c r="E30" s="2">
-        <v>44408</v>
+        <v>44430</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J30" s="2">
-        <v>44410</v>
+        <v>44433</v>
       </c>
       <c r="L30" t="s">
         <v>0</v>
@@ -2958,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="AN30" s="2">
-        <v>44410</v>
+        <v>44433</v>
       </c>
       <c r="AO30" s="4"/>
       <c r="AS30" s="3"/>
@@ -2973,22 +2889,28 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>352197677812</v>
+        <v>352198789541</v>
       </c>
       <c r="B31" s="2">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2">
-        <v>22821</v>
+        <v>31255</v>
       </c>
       <c r="E31" s="2">
-        <v>44417</v>
+        <v>44432</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44434</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
       </c>
       <c r="M31" s="3"/>
       <c r="O31" s="4"/>
@@ -2997,7 +2919,17 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="3"/>
       <c r="AG31" s="4"/>
-      <c r="AL31" s="3"/>
+      <c r="AL31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>44434</v>
+      </c>
+      <c r="AO31" s="4"/>
+      <c r="AS31" s="3"/>
       <c r="AU31" s="4"/>
       <c r="AY31" s="3"/>
       <c r="BH31" t="s">
@@ -3009,25 +2941,25 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>352198188582</v>
+        <v>352196174796</v>
       </c>
       <c r="B32" s="2">
-        <v>44430</v>
+        <v>44413</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2">
-        <v>33116</v>
+        <v>33069</v>
       </c>
       <c r="E32" s="2">
-        <v>44426</v>
+        <v>44410</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2">
-        <v>44430</v>
+        <v>44412</v>
       </c>
       <c r="L32" t="s">
         <v>0</v>
@@ -3046,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="AN32" s="2">
-        <v>44430</v>
+        <v>44412</v>
       </c>
       <c r="AO32" s="4"/>
       <c r="AS32" s="3"/>
@@ -3061,25 +2993,25 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>352198172674</v>
+        <v>352198420578</v>
       </c>
       <c r="B33" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2">
-        <v>30883</v>
+        <v>33897</v>
       </c>
       <c r="E33" s="2">
         <v>44427</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J33" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="L33" t="s">
         <v>0</v>
@@ -3098,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="AN33" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="AO33" s="4"/>
       <c r="AS33" s="3"/>
@@ -3113,28 +3045,22 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>352196857679</v>
+        <v>352197348099</v>
       </c>
       <c r="B34" s="2">
-        <v>44419</v>
+        <v>44424</v>
       </c>
       <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2">
+        <v>34665</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44415</v>
+      </c>
+      <c r="F34" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="2">
-        <v>32406</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44416</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="2">
-        <v>44419</v>
-      </c>
-      <c r="L34" t="s">
-        <v>0</v>
       </c>
       <c r="M34" s="3"/>
       <c r="O34" s="4"/>
@@ -3143,17 +3069,7 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="3"/>
       <c r="AG34" s="4"/>
-      <c r="AL34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>44419</v>
-      </c>
-      <c r="AO34" s="4"/>
-      <c r="AS34" s="3"/>
+      <c r="AL34" s="3"/>
       <c r="AU34" s="4"/>
       <c r="AY34" s="3"/>
       <c r="BH34" t="s">
@@ -3165,25 +3081,25 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>352198914519</v>
+        <v>352197694436</v>
       </c>
       <c r="B35" s="2">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="2">
-        <v>37608</v>
+        <v>34073</v>
       </c>
       <c r="E35" s="2">
-        <v>44433</v>
+        <v>44423</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J35" s="2">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="L35" t="s">
         <v>0</v>
@@ -3202,14 +3118,14 @@
         <v>1</v>
       </c>
       <c r="AN35" s="2">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="AO35" s="4"/>
       <c r="AS35" s="3"/>
       <c r="AU35" s="4"/>
       <c r="AY35" s="3"/>
       <c r="BH35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BI35" t="s">
         <v>3</v>
@@ -3217,28 +3133,22 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>352195972351</v>
+        <v>352197250676</v>
       </c>
       <c r="B36" s="2">
-        <v>44411</v>
+        <v>44422</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2">
-        <v>29092</v>
+        <v>36012</v>
       </c>
       <c r="E36" s="2">
-        <v>44409</v>
+        <v>44415</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" s="2">
-        <v>44411</v>
-      </c>
-      <c r="L36" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M36" s="3"/>
       <c r="O36" s="4"/>
@@ -3247,17 +3157,7 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="3"/>
       <c r="AG36" s="4"/>
-      <c r="AL36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>44411</v>
-      </c>
-      <c r="AO36" s="4"/>
-      <c r="AS36" s="3"/>
+      <c r="AL36" s="3"/>
       <c r="AU36" s="4"/>
       <c r="AY36" s="3"/>
       <c r="BH36" t="s">
@@ -3269,25 +3169,25 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>352198414798</v>
+        <v>352197964237</v>
       </c>
       <c r="B37" s="2">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2">
-        <v>33179</v>
+        <v>42975</v>
       </c>
       <c r="E37" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J37" s="2">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="L37" t="s">
         <v>0</v>
@@ -3306,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="AN37" s="2">
-        <v>44431</v>
+        <v>44427</v>
       </c>
       <c r="AO37" s="4"/>
       <c r="AS37" s="3"/>
@@ -3321,25 +3221,25 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>352198432432</v>
+        <v>352198551064</v>
       </c>
       <c r="B38" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2">
-        <v>32562</v>
+        <v>35730</v>
       </c>
       <c r="E38" s="2">
-        <v>44429</v>
+        <v>44423</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J38" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="L38" t="s">
         <v>0</v>
@@ -3358,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="AN38" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="AO38" s="4"/>
       <c r="AS38" s="3"/>
@@ -3373,25 +3273,25 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>352195997701</v>
+        <v>352196268024</v>
       </c>
       <c r="B39" s="2">
+        <v>44413</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="2">
+        <v>37266</v>
+      </c>
+      <c r="E39" s="2">
         <v>44412</v>
       </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="2">
-        <v>31604</v>
-      </c>
-      <c r="E39" s="2">
-        <v>44409</v>
-      </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J39" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="L39" t="s">
         <v>0</v>
@@ -3410,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="AN39" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="AO39" s="4"/>
       <c r="AS39" s="3"/>
@@ -3425,25 +3325,25 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>352197837693</v>
+        <v>352197673602</v>
       </c>
       <c r="B40" s="2">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2">
-        <v>24646</v>
+        <v>34692</v>
       </c>
       <c r="E40" s="2">
-        <v>44427</v>
+        <v>44417</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="J40" s="2">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="L40" t="s">
         <v>0</v>
@@ -3462,14 +3362,14 @@
         <v>1</v>
       </c>
       <c r="AN40" s="2">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="AO40" s="4"/>
       <c r="AS40" s="3"/>
       <c r="AU40" s="4"/>
       <c r="AY40" s="3"/>
       <c r="BH40" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BI40" t="s">
         <v>3</v>
@@ -3477,22 +3377,28 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>352199000251</v>
+        <v>352197098873</v>
       </c>
       <c r="B41" s="2">
-        <v>44437</v>
+        <v>44420</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2">
-        <v>35140</v>
+        <v>37150</v>
       </c>
       <c r="E41" s="2">
+        <v>44418</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="2">
         <v>44420</v>
       </c>
-      <c r="F41" t="s">
-        <v>102</v>
+      <c r="L41" t="s">
+        <v>0</v>
       </c>
       <c r="M41" s="3"/>
       <c r="O41" s="4"/>
@@ -3501,27 +3407,16 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="3"/>
       <c r="AG41" s="4"/>
-      <c r="AH41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI41" s="2">
-        <v>44427</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>21</v>
-      </c>
       <c r="AL41" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="2">
-        <v>44427</v>
-      </c>
-      <c r="AO41" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>44420</v>
+      </c>
+      <c r="AO41" s="4"/>
       <c r="AS41" s="3"/>
       <c r="AU41" s="4"/>
       <c r="AY41" s="3"/>
@@ -3534,25 +3429,25 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>352196260818</v>
+        <v>352197590010</v>
       </c>
       <c r="B42" s="2">
-        <v>44413</v>
+        <v>44425</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D42" s="2">
-        <v>28788</v>
+        <v>21412</v>
       </c>
       <c r="E42" s="2">
-        <v>44409</v>
+        <v>44379</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J42" s="2">
-        <v>44413</v>
+        <v>44379</v>
       </c>
       <c r="L42" t="s">
         <v>0</v>
@@ -3571,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="AN42" s="2">
-        <v>44413</v>
+        <v>44379</v>
       </c>
       <c r="AO42" s="4"/>
       <c r="AS42" s="3"/>
@@ -3586,25 +3481,25 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>352197092790</v>
+        <v>352198953935</v>
       </c>
       <c r="B43" s="2">
-        <v>44420</v>
+        <v>44436</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2">
-        <v>44316</v>
+        <v>33885</v>
       </c>
       <c r="E43" s="2">
-        <v>44418</v>
+        <v>44431</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="J43" s="2">
-        <v>44420</v>
+        <v>44436</v>
       </c>
       <c r="L43" t="s">
         <v>0</v>
@@ -3623,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="AN43" s="2">
-        <v>44420</v>
+        <v>44436</v>
       </c>
       <c r="AO43" s="4"/>
       <c r="AS43" s="3"/>
@@ -3638,25 +3533,25 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>352197186738</v>
+        <v>352198365791</v>
       </c>
       <c r="B44" s="2">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2">
-        <v>32115</v>
+        <v>33221</v>
       </c>
       <c r="E44" s="2">
-        <v>44418</v>
+        <v>44426</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="J44" s="2">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="L44" t="s">
         <v>0</v>
@@ -3675,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="AN44" s="2">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="AO44" s="4"/>
       <c r="AS44" s="3"/>
@@ -3690,25 +3585,25 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>352198364874</v>
+        <v>352198646162</v>
       </c>
       <c r="B45" s="2">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2">
-        <v>32997</v>
+        <v>35559</v>
       </c>
       <c r="E45" s="2">
-        <v>44425</v>
+        <v>44431</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J45" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="L45" t="s">
         <v>0</v>
@@ -3727,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="AN45" s="2">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="AO45" s="4"/>
       <c r="AS45" s="3"/>
@@ -3742,72 +3637,64 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>352195866153</v>
+        <v>352198826768</v>
       </c>
       <c r="B46" s="2">
-        <v>44411</v>
+        <v>44435</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2">
-        <v>34724</v>
+        <v>36707</v>
       </c>
       <c r="E46" s="2">
-        <v>44411</v>
+        <v>44424</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="M46" s="3"/>
       <c r="O46" s="4"/>
       <c r="S46" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>44411</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>44434</v>
+      </c>
+      <c r="U46" s="4"/>
       <c r="V46" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2">
-        <v>44411</v>
-      </c>
-      <c r="X46" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>44434</v>
+      </c>
+      <c r="X46" s="4"/>
       <c r="Y46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="3"/>
       <c r="AG46" s="4"/>
       <c r="AL46" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AN46" s="2">
-        <v>44411</v>
-      </c>
-      <c r="AO46" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>44434</v>
+      </c>
+      <c r="AO46" s="4"/>
       <c r="AR46" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT46" s="2">
-        <v>44411</v>
-      </c>
-      <c r="AU46" s="4" t="s">
-        <v>110</v>
-      </c>
+        <v>44434</v>
+      </c>
+      <c r="AU46" s="4"/>
       <c r="AY46" s="3"/>
       <c r="BH46" t="s">
         <v>2</v>
@@ -3818,25 +3705,25 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>352198786185</v>
+        <v>352198262426</v>
       </c>
       <c r="B47" s="2">
-        <v>44434</v>
+        <v>44431</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2">
-        <v>36186</v>
+        <v>33654</v>
       </c>
       <c r="E47" s="2">
-        <v>44430</v>
+        <v>44426</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J47" s="2">
-        <v>44434</v>
+        <v>44431</v>
       </c>
       <c r="L47" t="s">
         <v>0</v>
@@ -3855,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AN47" s="2">
-        <v>44434</v>
+        <v>44431</v>
       </c>
       <c r="AO47" s="4"/>
       <c r="AS47" s="3"/>
@@ -3870,25 +3757,25 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>352198415013</v>
+        <v>352196968607</v>
       </c>
       <c r="B48" s="2">
-        <v>44432</v>
+        <v>44420</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2">
-        <v>34475</v>
+        <v>32632</v>
       </c>
       <c r="E48" s="2">
-        <v>44428</v>
+        <v>44414</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J48" s="2">
-        <v>44432</v>
+        <v>44420</v>
       </c>
       <c r="L48" t="s">
         <v>0</v>
@@ -3907,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="AN48" s="2">
-        <v>44432</v>
+        <v>44420</v>
       </c>
       <c r="AO48" s="4"/>
       <c r="AS48" s="3"/>
@@ -3922,22 +3809,28 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>352198924561</v>
+        <v>352197215246</v>
       </c>
       <c r="B49" s="2">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="C49" t="s">
         <v>114</v>
       </c>
       <c r="D49" s="2">
-        <v>36275</v>
+        <v>32632</v>
       </c>
       <c r="E49" s="2">
-        <v>44431</v>
+        <v>44416</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>35</v>
+      </c>
+      <c r="J49" s="2">
+        <v>44421</v>
+      </c>
+      <c r="L49" t="s">
+        <v>0</v>
       </c>
       <c r="M49" s="3"/>
       <c r="O49" s="4"/>
@@ -3946,7 +3839,17 @@
       <c r="AD49" s="4"/>
       <c r="AE49" s="3"/>
       <c r="AG49" s="4"/>
-      <c r="AL49" s="3"/>
+      <c r="AL49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>44421</v>
+      </c>
+      <c r="AO49" s="4"/>
+      <c r="AS49" s="3"/>
       <c r="AU49" s="4"/>
       <c r="AY49" s="3"/>
       <c r="BH49" t="s">
@@ -3958,25 +3861,25 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>352198736909</v>
+        <v>352196791117</v>
       </c>
       <c r="B50" s="2">
-        <v>44434</v>
+        <v>44418</v>
       </c>
       <c r="C50" t="s">
         <v>115</v>
       </c>
       <c r="D50" s="2">
-        <v>36812</v>
+        <v>34733</v>
       </c>
       <c r="E50" s="2">
-        <v>44433</v>
+        <v>44416</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J50" s="2">
-        <v>44434</v>
+        <v>44418</v>
       </c>
       <c r="L50" t="s">
         <v>0</v>
@@ -3995,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="AN50" s="2">
-        <v>44434</v>
+        <v>44418</v>
       </c>
       <c r="AO50" s="4"/>
       <c r="AS50" s="3"/>
@@ -4010,28 +3913,22 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>352195772528</v>
+        <v>352198364517</v>
       </c>
       <c r="B51" s="2">
-        <v>44410</v>
+        <v>44432</v>
       </c>
       <c r="C51" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="2">
-        <v>33014</v>
+        <v>32642</v>
       </c>
       <c r="E51" s="2">
-        <v>44405</v>
+        <v>44426</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="2">
-        <v>44410</v>
-      </c>
-      <c r="L51" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="M51" s="3"/>
       <c r="O51" s="4"/>
@@ -4040,17 +3937,7 @@
       <c r="AD51" s="4"/>
       <c r="AE51" s="3"/>
       <c r="AG51" s="4"/>
-      <c r="AL51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN51" s="2">
-        <v>44410</v>
-      </c>
-      <c r="AO51" s="4"/>
-      <c r="AS51" s="3"/>
+      <c r="AL51" s="3"/>
       <c r="AU51" s="4"/>
       <c r="AY51" s="3"/>
       <c r="BH51" t="s">
@@ -4062,40 +3949,32 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>352195882389</v>
+        <v>352198530704</v>
       </c>
       <c r="B52" s="2">
-        <v>44411</v>
+        <v>44433</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2">
-        <v>27670</v>
+        <v>32746</v>
       </c>
       <c r="E52" s="2">
-        <v>44402</v>
+        <v>44427</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>42</v>
+      </c>
+      <c r="J52" s="2">
+        <v>44433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>0</v>
       </c>
       <c r="M52" s="3"/>
       <c r="O52" s="4"/>
-      <c r="S52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2">
-        <v>44411</v>
-      </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2">
-        <v>44411</v>
-      </c>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="3"/>
+      <c r="V52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="3"/>
@@ -4104,21 +3983,13 @@
         <v>0</v>
       </c>
       <c r="AM52" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AN52" s="2">
-        <v>44411</v>
+        <v>44433</v>
       </c>
       <c r="AO52" s="4"/>
-      <c r="AR52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT52" s="2">
-        <v>44411</v>
-      </c>
+      <c r="AS52" s="3"/>
       <c r="AU52" s="4"/>
       <c r="AY52" s="3"/>
       <c r="BH52" t="s">
@@ -4130,25 +4001,25 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>352196337205</v>
+        <v>352198402030</v>
       </c>
       <c r="B53" s="2">
-        <v>44414</v>
+        <v>44431</v>
       </c>
       <c r="C53" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="2">
-        <v>38789</v>
+        <v>32697</v>
       </c>
       <c r="E53" s="2">
-        <v>44409</v>
+        <v>44429</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="J53" s="2">
-        <v>44413</v>
+        <v>44431</v>
       </c>
       <c r="L53" t="s">
         <v>0</v>
@@ -4167,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="AN53" s="2">
-        <v>44413</v>
+        <v>44431</v>
       </c>
       <c r="AO53" s="4"/>
       <c r="AS53" s="3"/>
@@ -4182,25 +4053,25 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>352198525753</v>
+        <v>352195757201</v>
       </c>
       <c r="B54" s="2">
-        <v>44433</v>
+        <v>44410</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="2">
-        <v>29117</v>
+        <v>33385</v>
       </c>
       <c r="E54" s="2">
-        <v>44430</v>
+        <v>44407</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="J54" s="2">
-        <v>44433</v>
+        <v>44410</v>
       </c>
       <c r="L54" t="s">
         <v>0</v>
@@ -4219,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="AN54" s="2">
-        <v>44433</v>
+        <v>44410</v>
       </c>
       <c r="AO54" s="4"/>
       <c r="AS54" s="3"/>
@@ -4234,25 +4105,25 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>352198789541</v>
+        <v>352197098941</v>
       </c>
       <c r="B55" s="2">
-        <v>44434</v>
+        <v>44420</v>
       </c>
       <c r="C55" t="s">
         <v>122</v>
       </c>
       <c r="D55" s="2">
-        <v>31255</v>
+        <v>37957</v>
       </c>
       <c r="E55" s="2">
-        <v>44432</v>
+        <v>44416</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="J55" s="2">
-        <v>44434</v>
+        <v>44420</v>
       </c>
       <c r="L55" t="s">
         <v>0</v>
@@ -4271,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="AN55" s="2">
-        <v>44434</v>
+        <v>44420</v>
       </c>
       <c r="AO55" s="4"/>
       <c r="AS55" s="3"/>
@@ -4286,25 +4157,25 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>352196174796</v>
+        <v>352197628856</v>
       </c>
       <c r="B56" s="2">
-        <v>44413</v>
+        <v>44425</v>
       </c>
       <c r="C56" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="2">
-        <v>33069</v>
+        <v>34946</v>
       </c>
       <c r="E56" s="2">
-        <v>44410</v>
+        <v>44418</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="J56" s="2">
-        <v>44412</v>
+        <v>44425</v>
       </c>
       <c r="L56" t="s">
         <v>0</v>
@@ -4323,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="AN56" s="2">
-        <v>44412</v>
+        <v>44425</v>
       </c>
       <c r="AO56" s="4"/>
       <c r="AS56" s="3"/>
@@ -4338,28 +4209,22 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>352198420578</v>
+        <v>352197677791</v>
       </c>
       <c r="B57" s="2">
-        <v>44431</v>
+        <v>44426</v>
       </c>
       <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="2">
+        <v>37352</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44417</v>
+      </c>
+      <c r="F57" t="s">
         <v>125</v>
-      </c>
-      <c r="D57" s="2">
-        <v>33897</v>
-      </c>
-      <c r="E57" s="2">
-        <v>44427</v>
-      </c>
-      <c r="F57" t="s">
-        <v>126</v>
-      </c>
-      <c r="J57" s="2">
-        <v>44431</v>
-      </c>
-      <c r="L57" t="s">
-        <v>0</v>
       </c>
       <c r="M57" s="3"/>
       <c r="O57" s="4"/>
@@ -4368,17 +4233,7 @@
       <c r="AD57" s="4"/>
       <c r="AE57" s="3"/>
       <c r="AG57" s="4"/>
-      <c r="AL57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN57" s="2">
-        <v>44431</v>
-      </c>
-      <c r="AO57" s="4"/>
-      <c r="AS57" s="3"/>
+      <c r="AL57" s="3"/>
       <c r="AU57" s="4"/>
       <c r="AY57" s="3"/>
       <c r="BH57" t="s">
@@ -4390,22 +4245,28 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>352197348099</v>
+        <v>352196601465</v>
       </c>
       <c r="B58" s="2">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="2">
-        <v>34665</v>
+        <v>35175</v>
       </c>
       <c r="E58" s="2">
         <v>44415</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>14</v>
+      </c>
+      <c r="J58" s="2">
+        <v>44417</v>
+      </c>
+      <c r="L58" t="s">
+        <v>0</v>
       </c>
       <c r="M58" s="3"/>
       <c r="O58" s="4"/>
@@ -4414,7 +4275,17 @@
       <c r="AD58" s="4"/>
       <c r="AE58" s="3"/>
       <c r="AG58" s="4"/>
-      <c r="AL58" s="3"/>
+      <c r="AL58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO58" s="4"/>
+      <c r="AS58" s="3"/>
       <c r="AU58" s="4"/>
       <c r="AY58" s="3"/>
       <c r="BH58" t="s">
@@ -4426,25 +4297,25 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>352197694436</v>
+        <v>352198502320</v>
       </c>
       <c r="B59" s="2">
-        <v>44426</v>
+        <v>44432</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" s="2">
-        <v>34073</v>
+        <v>37331</v>
       </c>
       <c r="E59" s="2">
-        <v>44423</v>
+        <v>44428</v>
       </c>
       <c r="F59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J59" s="2">
-        <v>44426</v>
+        <v>44432</v>
       </c>
       <c r="L59" t="s">
         <v>0</v>
@@ -4463,14 +4334,14 @@
         <v>1</v>
       </c>
       <c r="AN59" s="2">
-        <v>44426</v>
+        <v>44432</v>
       </c>
       <c r="AO59" s="4"/>
       <c r="AS59" s="3"/>
       <c r="AU59" s="4"/>
       <c r="AY59" s="3"/>
       <c r="BH59" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BI59" t="s">
         <v>3</v>
@@ -4478,22 +4349,31 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>352197250676</v>
+        <v>352199259271</v>
       </c>
       <c r="B60" s="2">
-        <v>44422</v>
+        <v>44439</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D60" s="2">
-        <v>36012</v>
+        <v>34215</v>
       </c>
       <c r="E60" s="2">
-        <v>44415</v>
+        <v>44438</v>
       </c>
       <c r="F60" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="J60" s="2">
+        <v>44439</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
       </c>
       <c r="M60" s="3"/>
       <c r="O60" s="4"/>
@@ -4502,7 +4382,19 @@
       <c r="AD60" s="4"/>
       <c r="AE60" s="3"/>
       <c r="AG60" s="4"/>
-      <c r="AL60" s="3"/>
+      <c r="AL60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="2">
+        <v>44439</v>
+      </c>
+      <c r="AO60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS60" s="3"/>
       <c r="AU60" s="4"/>
       <c r="AY60" s="3"/>
       <c r="BH60" t="s">
@@ -4514,25 +4406,25 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>352197964237</v>
+        <v>352198980264</v>
       </c>
       <c r="B61" s="2">
-        <v>44427</v>
+        <v>44437</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="2">
-        <v>42975</v>
+        <v>22521</v>
       </c>
       <c r="E61" s="2">
-        <v>44427</v>
+        <v>44437</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="J61" s="2">
-        <v>44427</v>
+        <v>44437</v>
       </c>
       <c r="L61" t="s">
         <v>0</v>
@@ -4551,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="AN61" s="2">
-        <v>44427</v>
+        <v>44437</v>
       </c>
       <c r="AO61" s="4"/>
       <c r="AS61" s="3"/>
@@ -4566,25 +4458,25 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>352198551064</v>
+        <v>352196641342</v>
       </c>
       <c r="B62" s="2">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D62" s="2">
-        <v>35730</v>
+        <v>28448</v>
       </c>
       <c r="E62" s="2">
-        <v>44423</v>
+        <v>44410</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J62" s="2">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="L62" t="s">
         <v>0</v>
@@ -4603,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="AN62" s="2">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="AO62" s="4"/>
       <c r="AS62" s="3"/>
@@ -4618,25 +4510,25 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>352196268024</v>
+        <v>352196452556</v>
       </c>
       <c r="B63" s="2">
-        <v>44413</v>
+        <v>44415</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2">
-        <v>37266</v>
+        <v>30511</v>
       </c>
       <c r="E63" s="2">
         <v>44412</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J63" s="2">
-        <v>44413</v>
+        <v>44415</v>
       </c>
       <c r="L63" t="s">
         <v>0</v>
@@ -4655,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="AN63" s="2">
-        <v>44413</v>
+        <v>44415</v>
       </c>
       <c r="AO63" s="4"/>
       <c r="AS63" s="3"/>
@@ -4670,28 +4562,22 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>352197673602</v>
+        <v>352197965207</v>
       </c>
       <c r="B64" s="2">
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D64" s="2">
-        <v>34692</v>
+        <v>38025</v>
       </c>
       <c r="E64" s="2">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
-      </c>
-      <c r="J64" s="2">
-        <v>44425</v>
-      </c>
-      <c r="L64" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M64" s="3"/>
       <c r="O64" s="4"/>
@@ -4700,21 +4586,32 @@
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
       <c r="AG64" s="4"/>
+      <c r="AH64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>44427</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>20</v>
+      </c>
       <c r="AL64" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM64" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AN64" s="2">
-        <v>44425</v>
-      </c>
-      <c r="AO64" s="4"/>
+        <v>44427</v>
+      </c>
+      <c r="AO64" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AS64" s="3"/>
       <c r="AU64" s="4"/>
       <c r="AY64" s="3"/>
       <c r="BH64" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BI64" t="s">
         <v>3</v>
@@ -4722,25 +4619,25 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>352197098873</v>
+        <v>352196414561</v>
       </c>
       <c r="B65" s="2">
-        <v>44420</v>
+        <v>44415</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2">
-        <v>37150</v>
+        <v>31479</v>
       </c>
       <c r="E65" s="2">
-        <v>44418</v>
+        <v>44413</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="J65" s="2">
-        <v>44420</v>
+        <v>44415</v>
       </c>
       <c r="L65" t="s">
         <v>0</v>
@@ -4759,14 +4656,14 @@
         <v>1</v>
       </c>
       <c r="AN65" s="2">
-        <v>44420</v>
+        <v>44415</v>
       </c>
       <c r="AO65" s="4"/>
       <c r="AS65" s="3"/>
       <c r="AU65" s="4"/>
       <c r="AY65" s="3"/>
       <c r="BH65" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BI65" t="s">
         <v>3</v>
@@ -4774,25 +4671,25 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>352197590010</v>
+        <v>352196663397</v>
       </c>
       <c r="B66" s="2">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2">
-        <v>21412</v>
+        <v>24530</v>
       </c>
       <c r="E66" s="2">
-        <v>44379</v>
+        <v>44411</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="J66" s="2">
-        <v>44379</v>
+        <v>44418</v>
       </c>
       <c r="L66" t="s">
         <v>0</v>
@@ -4811,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="AN66" s="2">
-        <v>44379</v>
+        <v>44418</v>
       </c>
       <c r="AO66" s="4"/>
       <c r="AS66" s="3"/>
@@ -4826,28 +4723,31 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>352198953935</v>
+        <v>352199231053</v>
       </c>
       <c r="B67" s="2">
-        <v>44436</v>
+        <v>44439</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2">
-        <v>33885</v>
+        <v>31434</v>
       </c>
       <c r="E67" s="2">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J67" s="2">
-        <v>44436</v>
+        <v>44439</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
       </c>
       <c r="L67" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M67" s="3"/>
       <c r="O67" s="4"/>
@@ -4857,15 +4757,17 @@
       <c r="AE67" s="3"/>
       <c r="AG67" s="4"/>
       <c r="AL67" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM67" t="s">
         <v>1</v>
       </c>
       <c r="AN67" s="2">
-        <v>44436</v>
-      </c>
-      <c r="AO67" s="4"/>
+        <v>44439</v>
+      </c>
+      <c r="AO67" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AS67" s="3"/>
       <c r="AU67" s="4"/>
       <c r="AY67" s="3"/>
@@ -4878,32 +4780,40 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>352198365791</v>
+        <v>352195672773</v>
       </c>
       <c r="B68" s="2">
-        <v>44432</v>
+        <v>44410</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D68" s="2">
-        <v>33221</v>
+        <v>17678</v>
       </c>
       <c r="E68" s="2">
-        <v>44426</v>
+        <v>44381</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" s="2">
-        <v>44432</v>
-      </c>
-      <c r="L68" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M68" s="3"/>
       <c r="O68" s="4"/>
-      <c r="V68" s="3"/>
+      <c r="S68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
+        <v>44410</v>
+      </c>
+      <c r="U68" s="4"/>
+      <c r="V68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>44410</v>
+      </c>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="3"/>
@@ -4912,13 +4822,21 @@
         <v>0</v>
       </c>
       <c r="AM68" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AN68" s="2">
-        <v>44432</v>
+        <v>44410</v>
       </c>
       <c r="AO68" s="4"/>
-      <c r="AS68" s="3"/>
+      <c r="AR68" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT68" s="2">
+        <v>44410</v>
+      </c>
       <c r="AU68" s="4"/>
       <c r="AY68" s="3"/>
       <c r="BH68" t="s">
@@ -4930,25 +4848,25 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>352198646162</v>
+        <v>352197674209</v>
       </c>
       <c r="B69" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2">
-        <v>35559</v>
+        <v>31219</v>
       </c>
       <c r="E69" s="2">
-        <v>44431</v>
+        <v>44419</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="L69" t="s">
         <v>0</v>
@@ -4967,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="AN69" s="2">
-        <v>44433</v>
+        <v>44425</v>
       </c>
       <c r="AO69" s="4"/>
       <c r="AS69" s="3"/>
@@ -4982,40 +4900,32 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>352198826768</v>
+        <v>352198365372</v>
       </c>
       <c r="B70" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D70" s="2">
-        <v>36707</v>
+        <v>32702</v>
       </c>
       <c r="E70" s="2">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>35</v>
+      </c>
+      <c r="J70" s="2">
+        <v>44432</v>
+      </c>
+      <c r="L70" t="s">
+        <v>0</v>
       </c>
       <c r="M70" s="3"/>
       <c r="O70" s="4"/>
-      <c r="S70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T70" s="2">
-        <v>44434</v>
-      </c>
-      <c r="U70" s="4"/>
-      <c r="V70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2">
-        <v>44434</v>
-      </c>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="3"/>
+      <c r="V70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="3"/>
@@ -5024,21 +4934,13 @@
         <v>0</v>
       </c>
       <c r="AM70" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AN70" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="AO70" s="4"/>
-      <c r="AR70" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT70" s="2">
-        <v>44434</v>
-      </c>
+      <c r="AS70" s="3"/>
       <c r="AU70" s="4"/>
       <c r="AY70" s="3"/>
       <c r="BH70" t="s">
@@ -5050,25 +4952,25 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>352198262426</v>
+        <v>352198998801</v>
       </c>
       <c r="B71" s="2">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D71" s="2">
-        <v>33654</v>
+        <v>14702</v>
       </c>
       <c r="E71" s="2">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="J71" s="2">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="L71" t="s">
         <v>0</v>
@@ -5087,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="AN71" s="2">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="AO71" s="4"/>
       <c r="AS71" s="3"/>
@@ -5102,25 +5004,25 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>352196968607</v>
+        <v>352197300474</v>
       </c>
       <c r="B72" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D72" s="2">
-        <v>32632</v>
+        <v>13384</v>
       </c>
       <c r="E72" s="2">
-        <v>44414</v>
+        <v>44419</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="J72" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="L72" t="s">
         <v>0</v>
@@ -5139,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="AN72" s="2">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="AO72" s="4"/>
       <c r="AS72" s="3"/>
@@ -5154,28 +5056,22 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>352197215246</v>
+        <v>352198364169</v>
       </c>
       <c r="B73" s="2">
-        <v>44421</v>
+        <v>44431</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D73" s="2">
-        <v>32632</v>
+        <v>37547</v>
       </c>
       <c r="E73" s="2">
-        <v>44416</v>
+        <v>44428</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J73" s="2">
-        <v>44421</v>
-      </c>
-      <c r="L73" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M73" s="3"/>
       <c r="O73" s="4"/>
@@ -5184,17 +5080,7 @@
       <c r="AD73" s="4"/>
       <c r="AE73" s="3"/>
       <c r="AG73" s="4"/>
-      <c r="AL73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN73" s="2">
-        <v>44421</v>
-      </c>
-      <c r="AO73" s="4"/>
-      <c r="AS73" s="3"/>
+      <c r="AL73" s="3"/>
       <c r="AU73" s="4"/>
       <c r="AY73" s="3"/>
       <c r="BH73" t="s">
@@ -5206,25 +5092,25 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>352196791117</v>
+        <v>352197479036</v>
       </c>
       <c r="B74" s="2">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D74" s="2">
-        <v>34733</v>
+        <v>43279</v>
       </c>
       <c r="E74" s="2">
-        <v>44416</v>
+        <v>44420</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="J74" s="2">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="L74" t="s">
         <v>0</v>
@@ -5243,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="AN74" s="2">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="AO74" s="4"/>
       <c r="AS74" s="3"/>
@@ -5258,22 +5144,28 @@
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>352198364517</v>
+        <v>352196845437</v>
       </c>
       <c r="B75" s="2">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D75" s="2">
-        <v>32642</v>
+        <v>19042</v>
       </c>
       <c r="E75" s="2">
-        <v>44426</v>
+        <v>44417</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="J75" s="2">
+        <v>44417</v>
+      </c>
+      <c r="L75" t="s">
+        <v>0</v>
       </c>
       <c r="M75" s="3"/>
       <c r="O75" s="4"/>
@@ -5282,7 +5174,17 @@
       <c r="AD75" s="4"/>
       <c r="AE75" s="3"/>
       <c r="AG75" s="4"/>
-      <c r="AL75" s="3"/>
+      <c r="AL75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN75" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO75" s="4"/>
+      <c r="AS75" s="3"/>
       <c r="AU75" s="4"/>
       <c r="AY75" s="3"/>
       <c r="BH75" t="s">
@@ -5294,25 +5196,25 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>352198530704</v>
+        <v>352197812001</v>
       </c>
       <c r="B76" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2">
-        <v>32746</v>
+        <v>37540</v>
       </c>
       <c r="E76" s="2">
-        <v>44427</v>
+        <v>44425</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J76" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="L76" t="s">
         <v>0</v>
@@ -5331,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="AN76" s="2">
-        <v>44433</v>
+        <v>44426</v>
       </c>
       <c r="AO76" s="4"/>
       <c r="AS76" s="3"/>
@@ -5346,25 +5248,25 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>352198402030</v>
+        <v>352196984685</v>
       </c>
       <c r="B77" s="2">
-        <v>44431</v>
+        <v>44420</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D77" s="2">
-        <v>32697</v>
+        <v>36599</v>
       </c>
       <c r="E77" s="2">
-        <v>44429</v>
+        <v>44414</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="J77" s="2">
-        <v>44431</v>
+        <v>44418</v>
       </c>
       <c r="L77" t="s">
         <v>0</v>
@@ -5383,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="AN77" s="2">
-        <v>44431</v>
+        <v>44418</v>
       </c>
       <c r="AO77" s="4"/>
       <c r="AS77" s="3"/>
@@ -5398,25 +5300,25 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>352195757201</v>
+        <v>352197672180</v>
       </c>
       <c r="B78" s="2">
-        <v>44410</v>
+        <v>44425</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D78" s="2">
-        <v>33385</v>
+        <v>42839</v>
       </c>
       <c r="E78" s="2">
-        <v>44407</v>
+        <v>44419</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J78" s="2">
-        <v>44410</v>
+        <v>44425</v>
       </c>
       <c r="L78" t="s">
         <v>0</v>
@@ -5435,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="AN78" s="2">
-        <v>44410</v>
+        <v>44425</v>
       </c>
       <c r="AO78" s="4"/>
       <c r="AS78" s="3"/>
@@ -5450,25 +5352,25 @@
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>352197098941</v>
+        <v>352196191363</v>
       </c>
       <c r="B79" s="2">
-        <v>44420</v>
+        <v>44413</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D79" s="2">
-        <v>37957</v>
+        <v>35988</v>
       </c>
       <c r="E79" s="2">
-        <v>44416</v>
+        <v>44409</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J79" s="2">
-        <v>44420</v>
+        <v>44413</v>
       </c>
       <c r="L79" t="s">
         <v>0</v>
@@ -5487,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="AN79" s="2">
-        <v>44420</v>
+        <v>44413</v>
       </c>
       <c r="AO79" s="4"/>
       <c r="AS79" s="3"/>
@@ -5502,25 +5404,25 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>352197628856</v>
+        <v>352196538547</v>
       </c>
       <c r="B80" s="2">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D80" s="2">
-        <v>34946</v>
+        <v>38345</v>
       </c>
       <c r="E80" s="2">
+        <v>44416</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" s="2">
         <v>44418</v>
-      </c>
-      <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44425</v>
       </c>
       <c r="L80" t="s">
         <v>0</v>
@@ -5539,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="AN80" s="2">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="AO80" s="4"/>
       <c r="AS80" s="3"/>
@@ -5554,22 +5456,28 @@
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>352197677791</v>
+        <v>352198637667</v>
       </c>
       <c r="B81" s="2">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D81" s="2">
-        <v>37352</v>
+        <v>43959</v>
       </c>
       <c r="E81" s="2">
-        <v>44417</v>
+        <v>44432</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>41</v>
+      </c>
+      <c r="J81" s="2">
+        <v>44433</v>
+      </c>
+      <c r="L81" t="s">
+        <v>0</v>
       </c>
       <c r="M81" s="3"/>
       <c r="O81" s="4"/>
@@ -5578,7 +5486,17 @@
       <c r="AD81" s="4"/>
       <c r="AE81" s="3"/>
       <c r="AG81" s="4"/>
-      <c r="AL81" s="3"/>
+      <c r="AL81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>44433</v>
+      </c>
+      <c r="AO81" s="4"/>
+      <c r="AS81" s="3"/>
       <c r="AU81" s="4"/>
       <c r="AY81" s="3"/>
       <c r="BH81" t="s">
@@ -5590,25 +5508,25 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>352196601465</v>
+        <v>352198037988</v>
       </c>
       <c r="B82" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D82" s="2">
-        <v>35175</v>
+        <v>42560</v>
       </c>
       <c r="E82" s="2">
-        <v>44415</v>
+        <v>44423</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J82" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="L82" t="s">
         <v>0</v>
@@ -5627,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="AN82" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="AO82" s="4"/>
       <c r="AS82" s="3"/>
@@ -5642,25 +5560,25 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>352198502320</v>
+        <v>352198008432</v>
       </c>
       <c r="B83" s="2">
-        <v>44432</v>
+        <v>44427</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D83" s="2">
-        <v>37331</v>
+        <v>23659</v>
       </c>
       <c r="E83" s="2">
-        <v>44428</v>
+        <v>44423</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J83" s="2">
-        <v>44432</v>
+        <v>44427</v>
       </c>
       <c r="L83" t="s">
         <v>0</v>
@@ -5679,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AN83" s="2">
-        <v>44432</v>
+        <v>44427</v>
       </c>
       <c r="AO83" s="4"/>
       <c r="AS83" s="3"/>
@@ -5694,31 +5612,28 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>352199259271</v>
+        <v>352198141016</v>
       </c>
       <c r="B84" s="2">
-        <v>44439</v>
+        <v>44429</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D84" s="2">
-        <v>34215</v>
+        <v>35538</v>
       </c>
       <c r="E84" s="2">
-        <v>44438</v>
+        <v>44429</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J84" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K84" t="s">
-        <v>21</v>
+        <v>44429</v>
       </c>
       <c r="L84" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M84" s="3"/>
       <c r="O84" s="4"/>
@@ -5728,17 +5643,15 @@
       <c r="AE84" s="3"/>
       <c r="AG84" s="4"/>
       <c r="AL84" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM84" t="s">
         <v>1</v>
       </c>
       <c r="AN84" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO84" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>44429</v>
+      </c>
+      <c r="AO84" s="4"/>
       <c r="AS84" s="3"/>
       <c r="AU84" s="4"/>
       <c r="AY84" s="3"/>
@@ -5751,25 +5664,25 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>352198980264</v>
+        <v>352198187639</v>
       </c>
       <c r="B85" s="2">
-        <v>44437</v>
+        <v>44430</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D85" s="2">
-        <v>22521</v>
+        <v>35433</v>
       </c>
       <c r="E85" s="2">
-        <v>44437</v>
+        <v>44426</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J85" s="2">
-        <v>44437</v>
+        <v>44430</v>
       </c>
       <c r="L85" t="s">
         <v>0</v>
@@ -5788,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="AN85" s="2">
-        <v>44437</v>
+        <v>44430</v>
       </c>
       <c r="AO85" s="4"/>
       <c r="AS85" s="3"/>
@@ -5803,28 +5716,22 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>352196641342</v>
+        <v>352197807715</v>
       </c>
       <c r="B86" s="2">
-        <v>44417</v>
+        <v>44426</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D86" s="2">
-        <v>28448</v>
+        <v>40841</v>
       </c>
       <c r="E86" s="2">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="2">
-        <v>44417</v>
-      </c>
-      <c r="L86" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M86" s="3"/>
       <c r="O86" s="4"/>
@@ -5833,17 +5740,7 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="3"/>
       <c r="AG86" s="4"/>
-      <c r="AL86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM86" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN86" s="2">
-        <v>44417</v>
-      </c>
-      <c r="AO86" s="4"/>
-      <c r="AS86" s="3"/>
+      <c r="AL86" s="3"/>
       <c r="AU86" s="4"/>
       <c r="AY86" s="3"/>
       <c r="BH86" t="s">
@@ -5855,25 +5752,25 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>352196452556</v>
+        <v>352198647200</v>
       </c>
       <c r="B87" s="2">
-        <v>44415</v>
+        <v>44433</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D87" s="2">
-        <v>30511</v>
+        <v>36428</v>
       </c>
       <c r="E87" s="2">
-        <v>44412</v>
+        <v>44432</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="J87" s="2">
-        <v>44415</v>
+        <v>44433</v>
       </c>
       <c r="L87" t="s">
         <v>0</v>
@@ -5892,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="AN87" s="2">
-        <v>44415</v>
+        <v>44433</v>
       </c>
       <c r="AO87" s="4"/>
       <c r="AS87" s="3"/>
@@ -5907,22 +5804,22 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>352197965207</v>
+        <v>352197720371</v>
       </c>
       <c r="B88" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D88" s="2">
-        <v>38025</v>
+        <v>35067</v>
       </c>
       <c r="E88" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="M88" s="3"/>
       <c r="O88" s="4"/>
@@ -5932,31 +5829,34 @@
       <c r="AE88" s="3"/>
       <c r="AG88" s="4"/>
       <c r="AH88" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI88" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="AJ88" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AL88" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="AM88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AN88" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="AO88" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS88" s="3"/>
       <c r="AU88" s="4"/>
       <c r="AY88" s="3"/>
+      <c r="BE88" t="s">
+        <v>34</v>
+      </c>
       <c r="BH88" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BI88" t="s">
         <v>3</v>
@@ -5964,25 +5864,25 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>352196414561</v>
+        <v>352199361629</v>
       </c>
       <c r="B89" s="2">
-        <v>44415</v>
+        <v>44439</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D89" s="2">
-        <v>31479</v>
+        <v>32745</v>
       </c>
       <c r="E89" s="2">
-        <v>44413</v>
+        <v>44435</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J89" s="2">
-        <v>44415</v>
+        <v>44439</v>
       </c>
       <c r="L89" t="s">
         <v>0</v>
@@ -6001,14 +5901,14 @@
         <v>1</v>
       </c>
       <c r="AN89" s="2">
-        <v>44415</v>
+        <v>44439</v>
       </c>
       <c r="AO89" s="4"/>
       <c r="AS89" s="3"/>
       <c r="AU89" s="4"/>
       <c r="AY89" s="3"/>
       <c r="BH89" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BI89" t="s">
         <v>3</v>
@@ -6016,28 +5916,31 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>352196663397</v>
+        <v>352196684047</v>
       </c>
       <c r="B90" s="2">
         <v>44418</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D90" s="2">
-        <v>24530</v>
+        <v>27219</v>
       </c>
       <c r="E90" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J90" s="2">
         <v>44418</v>
       </c>
+      <c r="K90" t="s">
+        <v>20</v>
+      </c>
       <c r="L90" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M90" s="3"/>
       <c r="O90" s="4"/>
@@ -6047,7 +5950,7 @@
       <c r="AE90" s="3"/>
       <c r="AG90" s="4"/>
       <c r="AL90" s="3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM90" t="s">
         <v>1</v>
@@ -6055,10 +5958,21 @@
       <c r="AN90" s="2">
         <v>44418</v>
       </c>
-      <c r="AO90" s="4"/>
+      <c r="AO90" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AS90" s="3"/>
       <c r="AU90" s="4"/>
       <c r="AY90" s="3"/>
+      <c r="BD90" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE90" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF90" s="2">
+        <v>44510</v>
+      </c>
       <c r="BH90" t="s">
         <v>2</v>
       </c>
@@ -6068,31 +5982,28 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>352199231053</v>
+        <v>352198383329</v>
       </c>
       <c r="B91" s="2">
-        <v>44439</v>
+        <v>44432</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D91" s="2">
-        <v>31434</v>
+        <v>26513</v>
       </c>
       <c r="E91" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="F91" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J91" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K91" t="s">
-        <v>21</v>
+        <v>44432</v>
       </c>
       <c r="L91" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3"/>
       <c r="O91" s="4"/>
@@ -6102,17 +6013,15 @@
       <c r="AE91" s="3"/>
       <c r="AG91" s="4"/>
       <c r="AL91" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AM91" t="s">
         <v>1</v>
       </c>
       <c r="AN91" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO91" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>44432</v>
+      </c>
+      <c r="AO91" s="4"/>
       <c r="AS91" s="3"/>
       <c r="AU91" s="4"/>
       <c r="AY91" s="3"/>
@@ -6125,40 +6034,32 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>352195672773</v>
+        <v>352198353269</v>
       </c>
       <c r="B92" s="2">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D92" s="2">
-        <v>17678</v>
+        <v>25912</v>
       </c>
       <c r="E92" s="2">
-        <v>44381</v>
+        <v>44429</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="J92" s="2">
+        <v>44431</v>
+      </c>
+      <c r="L92" t="s">
+        <v>0</v>
       </c>
       <c r="M92" s="3"/>
       <c r="O92" s="4"/>
-      <c r="S92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T92" s="2">
-        <v>44410</v>
-      </c>
-      <c r="U92" s="4"/>
-      <c r="V92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W92" s="2">
-        <v>44410</v>
-      </c>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="3"/>
+      <c r="V92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="3"/>
@@ -6167,21 +6068,13 @@
         <v>0</v>
       </c>
       <c r="AM92" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AN92" s="2">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="AO92" s="4"/>
-      <c r="AR92" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS92" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT92" s="2">
-        <v>44410</v>
-      </c>
+      <c r="AS92" s="3"/>
       <c r="AU92" s="4"/>
       <c r="AY92" s="3"/>
       <c r="BH92" t="s">
@@ -6193,25 +6086,25 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>352197674209</v>
+        <v>352198790783</v>
       </c>
       <c r="B93" s="2">
-        <v>44425</v>
+        <v>44434</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D93" s="2">
-        <v>31219</v>
+        <v>26426</v>
       </c>
       <c r="E93" s="2">
-        <v>44419</v>
+        <v>44434</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J93" s="2">
-        <v>44425</v>
+        <v>44434</v>
       </c>
       <c r="L93" t="s">
         <v>0</v>
@@ -6230,12 +6123,21 @@
         <v>1</v>
       </c>
       <c r="AN93" s="2">
-        <v>44425</v>
+        <v>44434</v>
       </c>
       <c r="AO93" s="4"/>
       <c r="AS93" s="3"/>
       <c r="AU93" s="4"/>
       <c r="AY93" s="3"/>
+      <c r="BD93" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE93" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF93" s="2">
+        <v>44470</v>
+      </c>
       <c r="BH93" t="s">
         <v>2</v>
       </c>
@@ -6245,28 +6147,22 @@
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>352198365372</v>
+        <v>352198364095</v>
       </c>
       <c r="B94" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D94" s="2">
-        <v>32702</v>
+        <v>32136</v>
       </c>
       <c r="E94" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-      <c r="J94" s="2">
-        <v>44432</v>
-      </c>
-      <c r="L94" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="M94" s="3"/>
       <c r="O94" s="4"/>
@@ -6275,21 +6171,11 @@
       <c r="AD94" s="4"/>
       <c r="AE94" s="3"/>
       <c r="AG94" s="4"/>
-      <c r="AL94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM94" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN94" s="2">
-        <v>44432</v>
-      </c>
-      <c r="AO94" s="4"/>
-      <c r="AS94" s="3"/>
+      <c r="AL94" s="3"/>
       <c r="AU94" s="4"/>
       <c r="AY94" s="3"/>
       <c r="BH94" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BI94" t="s">
         <v>3</v>
@@ -6297,25 +6183,25 @@
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>352198998801</v>
+        <v>352198559903</v>
       </c>
       <c r="B95" s="2">
-        <v>44437</v>
+        <v>44433</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D95" s="2">
-        <v>14702</v>
+        <v>29764</v>
       </c>
       <c r="E95" s="2">
-        <v>44434</v>
+        <v>44430</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J95" s="2">
-        <v>44437</v>
+        <v>44433</v>
       </c>
       <c r="L95" t="s">
         <v>0</v>
@@ -6334,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="AN95" s="2">
-        <v>44437</v>
+        <v>44433</v>
       </c>
       <c r="AO95" s="4"/>
       <c r="AS95" s="3"/>
@@ -6349,25 +6235,25 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>352197300474</v>
+        <v>352196256551</v>
       </c>
       <c r="B96" s="2">
-        <v>44422</v>
+        <v>44413</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D96" s="2">
-        <v>13384</v>
+        <v>32101</v>
       </c>
       <c r="E96" s="2">
-        <v>44419</v>
+        <v>44409</v>
       </c>
       <c r="F96" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="J96" s="2">
-        <v>44422</v>
+        <v>44413</v>
       </c>
       <c r="L96" t="s">
         <v>0</v>
@@ -6386,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="AN96" s="2">
-        <v>44422</v>
+        <v>44413</v>
       </c>
       <c r="AO96" s="4"/>
       <c r="AS96" s="3"/>
@@ -6401,22 +6287,28 @@
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>352198364169</v>
+        <v>352198340578</v>
       </c>
       <c r="B97" s="2">
         <v>44431</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D97" s="2">
-        <v>37547</v>
+        <v>34588</v>
       </c>
       <c r="E97" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="J97" s="2">
+        <v>44431</v>
+      </c>
+      <c r="L97" t="s">
+        <v>0</v>
       </c>
       <c r="M97" s="3"/>
       <c r="O97" s="4"/>
@@ -6425,7 +6317,17 @@
       <c r="AD97" s="4"/>
       <c r="AE97" s="3"/>
       <c r="AG97" s="4"/>
-      <c r="AL97" s="3"/>
+      <c r="AL97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>44431</v>
+      </c>
+      <c r="AO97" s="4"/>
+      <c r="AS97" s="3"/>
       <c r="AU97" s="4"/>
       <c r="AY97" s="3"/>
       <c r="BH97" t="s">
@@ -6437,25 +6339,25 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>352197479036</v>
+        <v>352197890316</v>
       </c>
       <c r="B98" s="2">
+        <v>44427</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="2">
+        <v>34724</v>
+      </c>
+      <c r="E98" s="2">
         <v>44424</v>
       </c>
-      <c r="C98" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="2">
-        <v>43279</v>
-      </c>
-      <c r="E98" s="2">
-        <v>44420</v>
-      </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="J98" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="L98" t="s">
         <v>0</v>
@@ -6474,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="AN98" s="2">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="AO98" s="4"/>
       <c r="AS98" s="3"/>
@@ -6489,25 +6391,25 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>352196845437</v>
+        <v>352198186833</v>
       </c>
       <c r="B99" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D99" s="2">
-        <v>19042</v>
+        <v>39241</v>
       </c>
       <c r="E99" s="2">
-        <v>44417</v>
+        <v>44427</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J99" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="L99" t="s">
         <v>0</v>
@@ -6526,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="AN99" s="2">
-        <v>44417</v>
+        <v>44430</v>
       </c>
       <c r="AO99" s="4"/>
       <c r="AS99" s="3"/>
@@ -6541,25 +6443,25 @@
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>352197812001</v>
+        <v>352196278060</v>
       </c>
       <c r="B100" s="2">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D100" s="2">
-        <v>37540</v>
+        <v>35267</v>
       </c>
       <c r="E100" s="2">
-        <v>44425</v>
+        <v>44408</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J100" s="2">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="L100" t="s">
         <v>0</v>
@@ -6578,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="AN100" s="2">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="AO100" s="4"/>
       <c r="AS100" s="3"/>
@@ -6593,25 +6495,25 @@
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>352196984685</v>
+        <v>352197956289</v>
       </c>
       <c r="B101" s="2">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D101" s="2">
-        <v>36599</v>
+        <v>33777</v>
       </c>
       <c r="E101" s="2">
-        <v>44414</v>
+        <v>44426</v>
       </c>
       <c r="F101" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J101" s="2">
-        <v>44418</v>
+        <v>44427</v>
       </c>
       <c r="L101" t="s">
         <v>0</v>
@@ -6630,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="AN101" s="2">
-        <v>44418</v>
+        <v>44427</v>
       </c>
       <c r="AO101" s="4"/>
       <c r="AS101" s="3"/>
@@ -6645,25 +6547,25 @@
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>352197672180</v>
+        <v>352197479995</v>
       </c>
       <c r="B102" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D102" s="2">
-        <v>42839</v>
+        <v>36006</v>
       </c>
       <c r="E102" s="2">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="J102" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="L102" t="s">
         <v>0</v>
@@ -6682,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AN102" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="AO102" s="4"/>
       <c r="AS102" s="3"/>
@@ -6695,1255 +6597,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>352196191363</v>
-      </c>
-      <c r="B103" s="2">
-        <v>44413</v>
-      </c>
-      <c r="C103" t="s">
-        <v>189</v>
-      </c>
-      <c r="D103" s="2">
-        <v>35988</v>
-      </c>
-      <c r="E103" s="2">
-        <v>44409</v>
-      </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="J103" s="2">
-        <v>44413</v>
-      </c>
-      <c r="L103" t="s">
-        <v>0</v>
-      </c>
-      <c r="M103" s="3"/>
-      <c r="O103" s="4"/>
-      <c r="V103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="3"/>
-      <c r="AG103" s="4"/>
-      <c r="AL103" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM103" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN103" s="2">
-        <v>44413</v>
-      </c>
-      <c r="AO103" s="4"/>
-      <c r="AS103" s="3"/>
-      <c r="AU103" s="4"/>
-      <c r="AY103" s="3"/>
-      <c r="BH103" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>352196538547</v>
-      </c>
-      <c r="B104" s="2">
-        <v>44417</v>
-      </c>
-      <c r="C104" t="s">
-        <v>190</v>
-      </c>
-      <c r="D104" s="2">
-        <v>38345</v>
-      </c>
-      <c r="E104" s="2">
-        <v>44416</v>
-      </c>
-      <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="J104" s="2">
-        <v>44418</v>
-      </c>
-      <c r="L104" t="s">
-        <v>0</v>
-      </c>
-      <c r="M104" s="3"/>
-      <c r="O104" s="4"/>
-      <c r="V104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AD104" s="4"/>
-      <c r="AE104" s="3"/>
-      <c r="AG104" s="4"/>
-      <c r="AL104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM104" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN104" s="2">
-        <v>44418</v>
-      </c>
-      <c r="AO104" s="4"/>
-      <c r="AS104" s="3"/>
-      <c r="AU104" s="4"/>
-      <c r="AY104" s="3"/>
-      <c r="BH104" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>352198637667</v>
-      </c>
-      <c r="B105" s="2">
-        <v>44433</v>
-      </c>
-      <c r="C105" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" s="2">
-        <v>43959</v>
-      </c>
-      <c r="E105" s="2">
-        <v>44432</v>
-      </c>
-      <c r="F105" t="s">
-        <v>43</v>
-      </c>
-      <c r="J105" s="2">
-        <v>44433</v>
-      </c>
-      <c r="L105" t="s">
-        <v>0</v>
-      </c>
-      <c r="M105" s="3"/>
-      <c r="O105" s="4"/>
-      <c r="V105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="3"/>
-      <c r="AG105" s="4"/>
-      <c r="AL105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM105" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN105" s="2">
-        <v>44433</v>
-      </c>
-      <c r="AO105" s="4"/>
-      <c r="AS105" s="3"/>
-      <c r="AU105" s="4"/>
-      <c r="AY105" s="3"/>
-      <c r="BH105" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>352198037988</v>
-      </c>
-      <c r="B106" s="2">
-        <v>44427</v>
-      </c>
-      <c r="C106" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106" s="2">
-        <v>42560</v>
-      </c>
-      <c r="E106" s="2">
-        <v>44423</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="J106" s="2">
-        <v>44427</v>
-      </c>
-      <c r="L106" t="s">
-        <v>0</v>
-      </c>
-      <c r="M106" s="3"/>
-      <c r="O106" s="4"/>
-      <c r="V106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AD106" s="4"/>
-      <c r="AE106" s="3"/>
-      <c r="AG106" s="4"/>
-      <c r="AL106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM106" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN106" s="2">
-        <v>44427</v>
-      </c>
-      <c r="AO106" s="4"/>
-      <c r="AS106" s="3"/>
-      <c r="AU106" s="4"/>
-      <c r="AY106" s="3"/>
-      <c r="BH106" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>352198008432</v>
-      </c>
-      <c r="B107" s="2">
-        <v>44427</v>
-      </c>
-      <c r="C107" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="2">
-        <v>23659</v>
-      </c>
-      <c r="E107" s="2">
-        <v>44423</v>
-      </c>
-      <c r="F107" t="s">
-        <v>194</v>
-      </c>
-      <c r="J107" s="2">
-        <v>44427</v>
-      </c>
-      <c r="L107" t="s">
-        <v>0</v>
-      </c>
-      <c r="M107" s="3"/>
-      <c r="O107" s="4"/>
-      <c r="V107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AD107" s="4"/>
-      <c r="AE107" s="3"/>
-      <c r="AG107" s="4"/>
-      <c r="AL107" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM107" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN107" s="2">
-        <v>44427</v>
-      </c>
-      <c r="AO107" s="4"/>
-      <c r="AS107" s="3"/>
-      <c r="AU107" s="4"/>
-      <c r="AY107" s="3"/>
-      <c r="BH107" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>352198141016</v>
-      </c>
-      <c r="B108" s="2">
-        <v>44429</v>
-      </c>
-      <c r="C108" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" s="2">
-        <v>35538</v>
-      </c>
-      <c r="E108" s="2">
-        <v>44429</v>
-      </c>
-      <c r="F108" t="s">
-        <v>196</v>
-      </c>
-      <c r="J108" s="2">
-        <v>44429</v>
-      </c>
-      <c r="L108" t="s">
-        <v>0</v>
-      </c>
-      <c r="M108" s="3"/>
-      <c r="O108" s="4"/>
-      <c r="V108" s="3"/>
-      <c r="AB108" s="3"/>
-      <c r="AD108" s="4"/>
-      <c r="AE108" s="3"/>
-      <c r="AG108" s="4"/>
-      <c r="AL108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM108" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN108" s="2">
-        <v>44429</v>
-      </c>
-      <c r="AO108" s="4"/>
-      <c r="AS108" s="3"/>
-      <c r="AU108" s="4"/>
-      <c r="AY108" s="3"/>
-      <c r="BH108" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>352198187639</v>
-      </c>
-      <c r="B109" s="2">
-        <v>44430</v>
-      </c>
-      <c r="C109" t="s">
-        <v>197</v>
-      </c>
-      <c r="D109" s="2">
-        <v>35433</v>
-      </c>
-      <c r="E109" s="2">
-        <v>44426</v>
-      </c>
-      <c r="F109" t="s">
-        <v>28</v>
-      </c>
-      <c r="J109" s="2">
-        <v>44430</v>
-      </c>
-      <c r="L109" t="s">
-        <v>0</v>
-      </c>
-      <c r="M109" s="3"/>
-      <c r="O109" s="4"/>
-      <c r="V109" s="3"/>
-      <c r="AB109" s="3"/>
-      <c r="AD109" s="4"/>
-      <c r="AE109" s="3"/>
-      <c r="AG109" s="4"/>
-      <c r="AL109" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM109" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN109" s="2">
-        <v>44430</v>
-      </c>
-      <c r="AO109" s="4"/>
-      <c r="AS109" s="3"/>
-      <c r="AU109" s="4"/>
-      <c r="AY109" s="3"/>
-      <c r="BH109" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>352197807715</v>
-      </c>
-      <c r="B110" s="2">
-        <v>44426</v>
-      </c>
-      <c r="C110" t="s">
-        <v>198</v>
-      </c>
-      <c r="D110" s="2">
-        <v>40841</v>
-      </c>
-      <c r="E110" s="2">
-        <v>44424</v>
-      </c>
-      <c r="F110" t="s">
-        <v>44</v>
-      </c>
-      <c r="M110" s="3"/>
-      <c r="O110" s="4"/>
-      <c r="V110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AD110" s="4"/>
-      <c r="AE110" s="3"/>
-      <c r="AG110" s="4"/>
-      <c r="AL110" s="3"/>
-      <c r="AU110" s="4"/>
-      <c r="AY110" s="3"/>
-      <c r="BH110" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>352198647200</v>
-      </c>
-      <c r="B111" s="2">
-        <v>44433</v>
-      </c>
-      <c r="C111" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="2">
-        <v>36428</v>
-      </c>
-      <c r="E111" s="2">
-        <v>44432</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="J111" s="2">
-        <v>44433</v>
-      </c>
-      <c r="L111" t="s">
-        <v>0</v>
-      </c>
-      <c r="M111" s="3"/>
-      <c r="O111" s="4"/>
-      <c r="V111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AD111" s="4"/>
-      <c r="AE111" s="3"/>
-      <c r="AG111" s="4"/>
-      <c r="AL111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM111" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN111" s="2">
-        <v>44433</v>
-      </c>
-      <c r="AO111" s="4"/>
-      <c r="AS111" s="3"/>
-      <c r="AU111" s="4"/>
-      <c r="AY111" s="3"/>
-      <c r="BH111" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>352197720371</v>
-      </c>
-      <c r="B112" s="2">
-        <v>44426</v>
-      </c>
-      <c r="C112" t="s">
-        <v>200</v>
-      </c>
-      <c r="D112" s="2">
-        <v>35067</v>
-      </c>
-      <c r="E112" s="2">
-        <v>44425</v>
-      </c>
-      <c r="F112" t="s">
-        <v>201</v>
-      </c>
-      <c r="M112" s="3"/>
-      <c r="O112" s="4"/>
-      <c r="V112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AD112" s="4"/>
-      <c r="AE112" s="3"/>
-      <c r="AG112" s="4"/>
-      <c r="AH112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI112" s="2">
-        <v>44426</v>
-      </c>
-      <c r="AJ112" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM112" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN112" s="2">
-        <v>44426</v>
-      </c>
-      <c r="AO112" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS112" s="3"/>
-      <c r="AU112" s="4"/>
-      <c r="AY112" s="3"/>
-      <c r="BE112" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH112" t="s">
-        <v>18</v>
-      </c>
-      <c r="BI112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>352199361629</v>
-      </c>
-      <c r="B113" s="2">
-        <v>44439</v>
-      </c>
-      <c r="C113" t="s">
-        <v>202</v>
-      </c>
-      <c r="D113" s="2">
-        <v>32745</v>
-      </c>
-      <c r="E113" s="2">
-        <v>44435</v>
-      </c>
-      <c r="F113" t="s">
-        <v>203</v>
-      </c>
-      <c r="J113" s="2">
-        <v>44439</v>
-      </c>
-      <c r="L113" t="s">
-        <v>0</v>
-      </c>
-      <c r="M113" s="3"/>
-      <c r="O113" s="4"/>
-      <c r="V113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AD113" s="4"/>
-      <c r="AE113" s="3"/>
-      <c r="AG113" s="4"/>
-      <c r="AL113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM113" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN113" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO113" s="4"/>
-      <c r="AS113" s="3"/>
-      <c r="AU113" s="4"/>
-      <c r="AY113" s="3"/>
-      <c r="BH113" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>352196684047</v>
-      </c>
-      <c r="B114" s="2">
-        <v>44418</v>
-      </c>
-      <c r="C114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D114" s="2">
-        <v>27219</v>
-      </c>
-      <c r="E114" s="2">
-        <v>44410</v>
-      </c>
-      <c r="F114" t="s">
-        <v>46</v>
-      </c>
-      <c r="J114" s="2">
-        <v>44418</v>
-      </c>
-      <c r="K114" t="s">
-        <v>21</v>
-      </c>
-      <c r="L114" t="s">
-        <v>22</v>
-      </c>
-      <c r="M114" s="3"/>
-      <c r="O114" s="4"/>
-      <c r="V114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AD114" s="4"/>
-      <c r="AE114" s="3"/>
-      <c r="AG114" s="4"/>
-      <c r="AL114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM114" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN114" s="2">
-        <v>44418</v>
-      </c>
-      <c r="AO114" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS114" s="3"/>
-      <c r="AU114" s="4"/>
-      <c r="AY114" s="3"/>
-      <c r="BD114" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE114" t="s">
-        <v>205</v>
-      </c>
-      <c r="BF114" s="2">
-        <v>44510</v>
-      </c>
-      <c r="BH114" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>352198383329</v>
-      </c>
-      <c r="B115" s="2">
-        <v>44432</v>
-      </c>
-      <c r="C115" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115" s="2">
-        <v>26513</v>
-      </c>
-      <c r="E115" s="2">
-        <v>44432</v>
-      </c>
-      <c r="F115" t="s">
-        <v>9</v>
-      </c>
-      <c r="J115" s="2">
-        <v>44432</v>
-      </c>
-      <c r="L115" t="s">
-        <v>0</v>
-      </c>
-      <c r="M115" s="3"/>
-      <c r="O115" s="4"/>
-      <c r="V115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AD115" s="4"/>
-      <c r="AE115" s="3"/>
-      <c r="AG115" s="4"/>
-      <c r="AL115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM115" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN115" s="2">
-        <v>44432</v>
-      </c>
-      <c r="AO115" s="4"/>
-      <c r="AS115" s="3"/>
-      <c r="AU115" s="4"/>
-      <c r="AY115" s="3"/>
-      <c r="BH115" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>352198353269</v>
-      </c>
-      <c r="B116" s="2">
-        <v>44431</v>
-      </c>
-      <c r="C116" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" s="2">
-        <v>25912</v>
-      </c>
-      <c r="E116" s="2">
-        <v>44429</v>
-      </c>
-      <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="J116" s="2">
-        <v>44431</v>
-      </c>
-      <c r="L116" t="s">
-        <v>0</v>
-      </c>
-      <c r="M116" s="3"/>
-      <c r="O116" s="4"/>
-      <c r="V116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="3"/>
-      <c r="AG116" s="4"/>
-      <c r="AL116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM116" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN116" s="2">
-        <v>44431</v>
-      </c>
-      <c r="AO116" s="4"/>
-      <c r="AS116" s="3"/>
-      <c r="AU116" s="4"/>
-      <c r="AY116" s="3"/>
-      <c r="BH116" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>352198790783</v>
-      </c>
-      <c r="B117" s="2">
-        <v>44434</v>
-      </c>
-      <c r="C117" t="s">
-        <v>208</v>
-      </c>
-      <c r="D117" s="2">
-        <v>26426</v>
-      </c>
-      <c r="E117" s="2">
-        <v>44434</v>
-      </c>
-      <c r="F117" t="s">
-        <v>33</v>
-      </c>
-      <c r="J117" s="2">
-        <v>44434</v>
-      </c>
-      <c r="L117" t="s">
-        <v>0</v>
-      </c>
-      <c r="M117" s="3"/>
-      <c r="O117" s="4"/>
-      <c r="V117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="3"/>
-      <c r="AG117" s="4"/>
-      <c r="AL117" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM117" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN117" s="2">
-        <v>44434</v>
-      </c>
-      <c r="AO117" s="4"/>
-      <c r="AS117" s="3"/>
-      <c r="AU117" s="4"/>
-      <c r="AY117" s="3"/>
-      <c r="BD117" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE117" t="s">
-        <v>13</v>
-      </c>
-      <c r="BF117" s="2">
-        <v>44470</v>
-      </c>
-      <c r="BH117" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>352198364095</v>
-      </c>
-      <c r="B118" s="2">
-        <v>44431</v>
-      </c>
-      <c r="C118" t="s">
-        <v>209</v>
-      </c>
-      <c r="D118" s="2">
-        <v>32136</v>
-      </c>
-      <c r="E118" s="2">
-        <v>44425</v>
-      </c>
-      <c r="F118" t="s">
-        <v>210</v>
-      </c>
-      <c r="M118" s="3"/>
-      <c r="O118" s="4"/>
-      <c r="V118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AD118" s="4"/>
-      <c r="AE118" s="3"/>
-      <c r="AG118" s="4"/>
-      <c r="AL118" s="3"/>
-      <c r="AU118" s="4"/>
-      <c r="AY118" s="3"/>
-      <c r="BH118" t="s">
-        <v>18</v>
-      </c>
-      <c r="BI118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>352198559903</v>
-      </c>
-      <c r="B119" s="2">
-        <v>44433</v>
-      </c>
-      <c r="C119" t="s">
-        <v>211</v>
-      </c>
-      <c r="D119" s="2">
-        <v>29764</v>
-      </c>
-      <c r="E119" s="2">
-        <v>44430</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="J119" s="2">
-        <v>44433</v>
-      </c>
-      <c r="L119" t="s">
-        <v>0</v>
-      </c>
-      <c r="M119" s="3"/>
-      <c r="O119" s="4"/>
-      <c r="V119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AD119" s="4"/>
-      <c r="AE119" s="3"/>
-      <c r="AG119" s="4"/>
-      <c r="AL119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM119" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN119" s="2">
-        <v>44433</v>
-      </c>
-      <c r="AO119" s="4"/>
-      <c r="AS119" s="3"/>
-      <c r="AU119" s="4"/>
-      <c r="AY119" s="3"/>
-      <c r="BH119" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>352196256551</v>
-      </c>
-      <c r="B120" s="2">
-        <v>44413</v>
-      </c>
-      <c r="C120" t="s">
-        <v>212</v>
-      </c>
-      <c r="D120" s="2">
-        <v>32101</v>
-      </c>
-      <c r="E120" s="2">
-        <v>44409</v>
-      </c>
-      <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120" s="2">
-        <v>44413</v>
-      </c>
-      <c r="L120" t="s">
-        <v>0</v>
-      </c>
-      <c r="M120" s="3"/>
-      <c r="O120" s="4"/>
-      <c r="V120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AD120" s="4"/>
-      <c r="AE120" s="3"/>
-      <c r="AG120" s="4"/>
-      <c r="AL120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM120" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN120" s="2">
-        <v>44413</v>
-      </c>
-      <c r="AO120" s="4"/>
-      <c r="AS120" s="3"/>
-      <c r="AU120" s="4"/>
-      <c r="AY120" s="3"/>
-      <c r="BH120" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>352198340578</v>
-      </c>
-      <c r="B121" s="2">
-        <v>44431</v>
-      </c>
-      <c r="C121" t="s">
-        <v>213</v>
-      </c>
-      <c r="D121" s="2">
-        <v>34588</v>
-      </c>
-      <c r="E121" s="2">
-        <v>44427</v>
-      </c>
-      <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="J121" s="2">
-        <v>44431</v>
-      </c>
-      <c r="L121" t="s">
-        <v>0</v>
-      </c>
-      <c r="M121" s="3"/>
-      <c r="O121" s="4"/>
-      <c r="V121" s="3"/>
-      <c r="AB121" s="3"/>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="3"/>
-      <c r="AG121" s="4"/>
-      <c r="AL121" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM121" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN121" s="2">
-        <v>44431</v>
-      </c>
-      <c r="AO121" s="4"/>
-      <c r="AS121" s="3"/>
-      <c r="AU121" s="4"/>
-      <c r="AY121" s="3"/>
-      <c r="BH121" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>352197890316</v>
-      </c>
-      <c r="B122" s="2">
-        <v>44427</v>
-      </c>
-      <c r="C122" t="s">
-        <v>214</v>
-      </c>
-      <c r="D122" s="2">
-        <v>34724</v>
-      </c>
-      <c r="E122" s="2">
-        <v>44424</v>
-      </c>
-      <c r="F122" t="s">
-        <v>4</v>
-      </c>
-      <c r="J122" s="2">
-        <v>44427</v>
-      </c>
-      <c r="L122" t="s">
-        <v>0</v>
-      </c>
-      <c r="M122" s="3"/>
-      <c r="O122" s="4"/>
-      <c r="V122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="3"/>
-      <c r="AG122" s="4"/>
-      <c r="AL122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM122" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN122" s="2">
-        <v>44427</v>
-      </c>
-      <c r="AO122" s="4"/>
-      <c r="AS122" s="3"/>
-      <c r="AU122" s="4"/>
-      <c r="AY122" s="3"/>
-      <c r="BH122" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>352198186833</v>
-      </c>
-      <c r="B123" s="2">
-        <v>44430</v>
-      </c>
-      <c r="C123" t="s">
-        <v>215</v>
-      </c>
-      <c r="D123" s="2">
-        <v>39241</v>
-      </c>
-      <c r="E123" s="2">
-        <v>44427</v>
-      </c>
-      <c r="F123" t="s">
-        <v>39</v>
-      </c>
-      <c r="J123" s="2">
-        <v>44430</v>
-      </c>
-      <c r="L123" t="s">
-        <v>0</v>
-      </c>
-      <c r="M123" s="3"/>
-      <c r="O123" s="4"/>
-      <c r="V123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AD123" s="4"/>
-      <c r="AE123" s="3"/>
-      <c r="AG123" s="4"/>
-      <c r="AL123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM123" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN123" s="2">
-        <v>44430</v>
-      </c>
-      <c r="AO123" s="4"/>
-      <c r="AS123" s="3"/>
-      <c r="AU123" s="4"/>
-      <c r="AY123" s="3"/>
-      <c r="BH123" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>352196278060</v>
-      </c>
-      <c r="B124" s="2">
-        <v>44413</v>
-      </c>
-      <c r="C124" t="s">
-        <v>216</v>
-      </c>
-      <c r="D124" s="2">
-        <v>35267</v>
-      </c>
-      <c r="E124" s="2">
-        <v>44408</v>
-      </c>
-      <c r="F124" t="s">
-        <v>7</v>
-      </c>
-      <c r="J124" s="2">
-        <v>44413</v>
-      </c>
-      <c r="L124" t="s">
-        <v>0</v>
-      </c>
-      <c r="M124" s="3"/>
-      <c r="O124" s="4"/>
-      <c r="V124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AD124" s="4"/>
-      <c r="AE124" s="3"/>
-      <c r="AG124" s="4"/>
-      <c r="AL124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN124" s="2">
-        <v>44413</v>
-      </c>
-      <c r="AO124" s="4"/>
-      <c r="AS124" s="3"/>
-      <c r="AU124" s="4"/>
-      <c r="AY124" s="3"/>
-      <c r="BH124" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>352197956289</v>
-      </c>
-      <c r="B125" s="2">
-        <v>44427</v>
-      </c>
-      <c r="C125" t="s">
-        <v>217</v>
-      </c>
-      <c r="D125" s="2">
-        <v>33777</v>
-      </c>
-      <c r="E125" s="2">
-        <v>44426</v>
-      </c>
-      <c r="F125" t="s">
-        <v>73</v>
-      </c>
-      <c r="J125" s="2">
-        <v>44427</v>
-      </c>
-      <c r="L125" t="s">
-        <v>0</v>
-      </c>
-      <c r="M125" s="3"/>
-      <c r="O125" s="4"/>
-      <c r="V125" s="3"/>
-      <c r="AB125" s="3"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="3"/>
-      <c r="AG125" s="4"/>
-      <c r="AL125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM125" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN125" s="2">
-        <v>44427</v>
-      </c>
-      <c r="AO125" s="4"/>
-      <c r="AS125" s="3"/>
-      <c r="AU125" s="4"/>
-      <c r="AY125" s="3"/>
-      <c r="BH125" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>352197479995</v>
-      </c>
-      <c r="B126" s="2">
-        <v>44424</v>
-      </c>
-      <c r="C126" t="s">
-        <v>218</v>
-      </c>
-      <c r="D126" s="2">
-        <v>36006</v>
-      </c>
-      <c r="E126" s="2">
-        <v>44422</v>
-      </c>
-      <c r="F126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J126" s="2">
-        <v>44424</v>
-      </c>
-      <c r="L126" t="s">
-        <v>0</v>
-      </c>
-      <c r="M126" s="3"/>
-      <c r="O126" s="4"/>
-      <c r="V126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AD126" s="4"/>
-      <c r="AE126" s="3"/>
-      <c r="AG126" s="4"/>
-      <c r="AL126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM126" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN126" s="2">
-        <v>44424</v>
-      </c>
-      <c r="AO126" s="4"/>
-      <c r="AS126" s="3"/>
-      <c r="AU126" s="4"/>
-      <c r="AY126" s="3"/>
-      <c r="BH126" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI126" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BI126" xr:uid="{BBA1D988-A178-4633-8969-135581B30D2E}"/>
+  <autoFilter ref="A1:BI102" xr:uid="{BBA1D988-A178-4633-8969-135581B30D2E}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>